--- a/old_database/crypto/rnaSample/rnaSample_2641.xlsx
+++ b/old_database/crypto/rnaSample/rnaSample_2641.xlsx
@@ -46,7 +46,7 @@
     <t>12.19.17</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_2641</t>
   </si>
 </sst>
 </file>
